--- a/biology/Médecine/Jonny_Kim/Jonny_Kim.xlsx
+++ b/biology/Médecine/Jonny_Kim/Jonny_Kim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jonathan Yong Kim, dit Jonny Kim, est un militaire, médecin et astronaute américain né le 5 février 1984 à Los Angeles (Californie).
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonny Kim est d'origine sud-coréenne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonny Kim est d'origine sud-coréenne.
 Son père, violent avec sa famille, s’est fait abattre par la police un soir alors qu’il avait menacé sa femme et ses enfants de les tuer avec une arme à feu.
 Ce traumatisme durant l’enfance s’est transformé en peur.
 Ne voulant plus vivre dans la peur, il entend un de ses amis parler de sa passion, la Navy SEAL, et décide d’y postuler afin de surmonter ses angoisses.
-Il a été membre des Navy SEALs (les forces spéciales de la marine américaine) et y a reçu la Silver Star et la Bronze Star pour une centaine d'opérations comme tireur d'élite, médecin militaire et navigateur[1],[2].
-Diplômé de l'université de San Diego et de la Harvard Medical School, Jonny Kim est médecin[2].
-En 2017, il est choisi pour faire partie du groupe d'astronautes 22 de la National Aeronautics and Space Administration (Nasa)[2].
+Il a été membre des Navy SEALs (les forces spéciales de la marine américaine) et y a reçu la Silver Star et la Bronze Star pour une centaine d'opérations comme tireur d'élite, médecin militaire et navigateur,.
+Diplômé de l'université de San Diego et de la Harvard Medical School, Jonny Kim est médecin.
+En 2017, il est choisi pour faire partie du groupe d'astronautes 22 de la National Aeronautics and Space Administration (Nasa).
 </t>
         </is>
       </c>
